--- a/data/trans_dic/P19C05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P19C05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,67%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>7,75; 23,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>10,57; 25,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>8,05; 23,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>7,46; 19,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>13,62; 28,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>12,88; 32,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>8,42; 22,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>12,6; 21,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>13,22; 24,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>13,67; 25,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>9,74; 20,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>11,21; 18,27</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,02%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>11,65; 18,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>13,65; 21,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>6,62; 12,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>7,99; 12,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>13,94; 20,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>16,44; 23,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>8,71; 14,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>11,72; 15,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>13,68; 18,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>16,06; 21,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>8,6; 12,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>10,46; 13,59</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,17%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>11,15; 16,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>11,58; 16,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>9,52; 14,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>7,4; 11,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>12,58; 17,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>16,16; 21,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>9,85; 14,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>7,84; 10,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>12,71; 16,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>14,6; 18,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>10,27; 13,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>7,97; 10,4</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,29%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>11,87; 18,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>10,44; 16,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>5,92; 10,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>7,85; 12,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>13,71; 19,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>14,53; 20,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>7,91; 13,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>6,74; 12,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>13,6; 17,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>13,39; 17,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>7,54; 11,27</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>7,72; 11,98</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,68%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>9,71; 14,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>13,53; 18,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>9,51; 13,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>9,75; 13,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>12,89; 18,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>15,29; 20,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>9,85; 14,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>11,89; 15,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>12,03; 15,5</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>15,05; 18,93</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>10,12; 13,36</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>11,51; 14,08</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,07%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>12,22; 15,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>13,75; 16,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>9,57; 11,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,29; 11,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>14,73; 17,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>16,74; 19,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>10,39; 12,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>10,63; 12,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>13,91; 15,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>15,67; 17,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>10,38; 12,15</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>10,27; 11,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>12,29%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,75; 23,49</t>
+          <t>12,07; 18,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,57; 25,47</t>
+          <t>14,17; 20,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,05; 23,49</t>
+          <t>7,89; 13,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,46; 19,84</t>
+          <t>8,18; 12,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,62; 28,63</t>
+          <t>14,54; 21,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,88; 32,77</t>
+          <t>16,88; 23,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,42; 22,17</t>
+          <t>9,37; 15,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,6; 21,71</t>
+          <t>12,1; 15,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,22; 24,03</t>
+          <t>13,89; 18,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,67; 25,13</t>
+          <t>16,38; 20,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,74; 20,1</t>
+          <t>9,42; 13,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,21; 18,27</t>
+          <t>10,83; 13,68</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>8,24%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,65; 18,62</t>
+          <t>11,15; 16,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,65; 21,06</t>
+          <t>11,58; 16,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,62; 12,53</t>
+          <t>9,52; 14,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,99; 12,65</t>
+          <t>3,91; 10,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,94; 20,95</t>
+          <t>12,58; 17,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,44; 23,6</t>
+          <t>16,16; 21,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,71; 14,82</t>
+          <t>9,85; 14,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,72; 15,91</t>
+          <t>7,86; 10,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,68; 18,47</t>
+          <t>12,71; 16,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,06; 21,01</t>
+          <t>14,6; 18,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,6; 12,85</t>
+          <t>10,27; 13,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,46; 13,59</t>
+          <t>5,23; 9,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>9,4%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,15; 16,4</t>
+          <t>11,87; 18,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,58; 16,56</t>
+          <t>10,44; 16,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,52; 14,25</t>
+          <t>5,92; 10,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,4; 11,45</t>
+          <t>7,63; 12,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,58; 17,77</t>
+          <t>13,71; 19,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,16; 21,37</t>
+          <t>14,53; 20,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,85; 14,77</t>
+          <t>7,91; 13,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,84; 10,66</t>
+          <t>4,5; 12,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,71; 16,35</t>
+          <t>13,6; 17,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,6; 18,53</t>
+          <t>13,39; 17,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,27; 13,52</t>
+          <t>7,54; 11,27</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,97; 10,4</t>
+          <t>5,85; 11,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>12,21%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,87; 18,13</t>
+          <t>9,71; 14,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,44; 16,58</t>
+          <t>13,53; 18,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,92; 10,82</t>
+          <t>9,51; 13,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,85; 12,3</t>
+          <t>9,62; 13,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,71; 19,93</t>
+          <t>12,89; 18,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,53; 20,86</t>
+          <t>15,29; 20,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,91; 13,35</t>
+          <t>9,85; 14,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,74; 12,85</t>
+          <t>10,44; 14,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,6; 17,84</t>
+          <t>12,03; 15,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,39; 17,72</t>
+          <t>15,05; 18,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,54; 11,27</t>
+          <t>10,12; 13,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,98</t>
+          <t>10,67; 13,62</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>10,36%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,71; 14,36</t>
+          <t>12,22; 15,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,53; 18,76</t>
+          <t>13,75; 16,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,51; 13,8</t>
+          <t>9,57; 11,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,75; 13,75</t>
+          <t>7,55; 10,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,89; 18,09</t>
+          <t>14,73; 17,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,29; 20,15</t>
+          <t>16,74; 19,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,85; 14,44</t>
+          <t>10,39; 12,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,89; 15,4</t>
+          <t>8,98; 12,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,03; 15,5</t>
+          <t>13,91; 15,89</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,05; 18,93</t>
+          <t>15,67; 17,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,12; 13,36</t>
+          <t>10,38; 12,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,51; 14,08</t>
+          <t>9,06; 11,29</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>13,59%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>15,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>10,65%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>10,32%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>16,13%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>18,23%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>11,63%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>11,73%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>14,93%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>16,68%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>11,16%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>11,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>12,22; 15,05</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>13,75; 16,54</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>9,57; 11,91</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>9,29; 11,49</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>14,73; 17,43</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>16,74; 19,53</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>10,39; 12,99</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>10,63; 12,76</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>13,91; 15,89</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>15,67; 17,67</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>10,38; 12,15</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>10,27; 11,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P19C05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,07; 18,32</t>
+          <t>11,91; 18,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,17; 20,46</t>
+          <t>13,81; 20,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,89; 13,32</t>
+          <t>7,82; 13,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,18; 12,63</t>
+          <t>8,49; 12,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,54; 21,04</t>
+          <t>14,93; 21,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,88; 23,24</t>
+          <t>16,79; 23,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,37; 15,08</t>
+          <t>9,28; 14,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,1; 15,94</t>
+          <t>12,24; 15,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,89; 18,71</t>
+          <t>14,04; 18,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,38; 20,77</t>
+          <t>16,4; 21,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,42; 13,14</t>
+          <t>9,53; 13,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,83; 13,68</t>
+          <t>10,98; 13,72</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,15; 16,4</t>
+          <t>10,95; 16,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,58; 16,56</t>
+          <t>11,66; 16,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,52; 14,25</t>
+          <t>9,63; 14,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 10,4</t>
+          <t>3,99; 10,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,58; 17,77</t>
+          <t>13,1; 18,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,16; 21,37</t>
+          <t>15,95; 21,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,85; 14,77</t>
+          <t>9,6; 14,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,86; 10,67</t>
+          <t>7,77; 10,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,71; 16,35</t>
+          <t>12,68; 16,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,6; 18,53</t>
+          <t>14,58; 18,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,27; 13,52</t>
+          <t>10,26; 13,61</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 9,79</t>
+          <t>5,3; 9,73</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,87; 18,13</t>
+          <t>12,11; 18,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,44; 16,58</t>
+          <t>10,69; 16,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 10,82</t>
+          <t>5,97; 10,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,63; 12,09</t>
+          <t>7,6; 11,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,71; 19,93</t>
+          <t>13,92; 20,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,53; 20,86</t>
+          <t>14,55; 20,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,91; 13,35</t>
+          <t>7,86; 13,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,5; 12,42</t>
+          <t>3,74; 12,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,6; 17,84</t>
+          <t>13,77; 18,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,39; 17,72</t>
+          <t>13,4; 17,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,54; 11,27</t>
+          <t>7,56; 11,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 11,47</t>
+          <t>5,54; 11,46</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,71; 14,36</t>
+          <t>9,61; 14,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,53; 18,76</t>
+          <t>13,42; 18,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,51; 13,8</t>
+          <t>9,49; 14,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,62; 13,61</t>
+          <t>9,75; 13,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,89; 18,09</t>
+          <t>13,11; 18,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,29; 20,15</t>
+          <t>15,02; 20,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,85; 14,44</t>
+          <t>9,72; 14,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,44; 14,88</t>
+          <t>10,25; 14,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,03; 15,5</t>
+          <t>12,23; 15,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,05; 18,93</t>
+          <t>15,08; 18,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,12; 13,36</t>
+          <t>10,25; 13,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,67; 13,62</t>
+          <t>10,77; 13,67</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,22; 15,05</t>
+          <t>12,29; 14,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,75; 16,54</t>
+          <t>13,63; 16,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,57; 11,91</t>
+          <t>9,43; 11,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,55; 10,84</t>
+          <t>7,3; 10,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,73; 17,43</t>
+          <t>14,76; 17,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,74; 19,53</t>
+          <t>16,78; 19,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,39; 12,99</t>
+          <t>10,45; 12,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,98; 12,29</t>
+          <t>8,75; 12,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,91; 15,89</t>
+          <t>14,04; 16,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,67; 17,67</t>
+          <t>15,69; 17,75</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,38; 12,15</t>
+          <t>10,33; 12,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,06; 11,29</t>
+          <t>8,96; 11,33</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>70717</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>103128</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>54333</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>63667</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>95592</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>125864</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>64327</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>91566</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>166309</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>228992</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>118659</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>155233</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>56892; 86034</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>83699; 123520</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>41054; 69749</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>51884; 79425</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>80338; 113871</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>106763; 147200</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>50543; 79934</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>79728; 103600</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>142681; 190964</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>203617; 260769</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>101856; 142880</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>138672; 173243</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>98404</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>120450</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>95579</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>87703</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>123555</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>166696</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>103257</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>85985</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>221959</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>287147</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>198836</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>173688</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>79041; 117133</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>101124; 143391</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>78578; 116262</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>46521; 121325</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>105347; 145229</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>143354; 189839</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>83196; 123341</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>73243; 100499</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>193600; 251777</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>257422; 322786</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>172686; 229091</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>111851; 205212</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>79801</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>84512</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>44486</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>66662</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>97391</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>117711</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>60995</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>84498</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>177191</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>202223</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>105481</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>151161</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>65984; 100319</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>67996; 104572</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>32846; 59869</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>52133; 81904</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>81381; 117026</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>98709; 141303</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>45575; 77000</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>34517; 115531</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>155545; 203624</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>176191; 231711</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>85482; 125733</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>89059; 184261</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>84730</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>129056</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>89327</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>102583</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>125683</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>163427</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>105011</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>135881</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>210413</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>292483</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>194338</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>238464</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>68215; 102916</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>108106; 152633</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>73295; 109221</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>86734; 122055</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>106721; 147743</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>140138; 189461</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>85256; 128000</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>108914; 156128</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>186346; 240799</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>262259; 324494</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>169054; 223560</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>210268; 267011</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>921</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>333652</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>437147</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>283725</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>320615</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>442221</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>573698</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>333590</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>397930</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>775873</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1010844</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>617315</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>718545</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>301710; 365333</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>397309; 481554</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>251292; 316354</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>244798; 361711</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>404636; 484194</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>528109; 617858</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>299632; 371248</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>312993; 437865</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>729461; 831117</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>950909; 1076018</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>571410; 669867</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>620979; 785501</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>